--- a/程序/PCA数据.xlsx
+++ b/程序/PCA数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大论文\需水预测\PSO-BP神经网络回归预测模型（粒子群算法优化BP神经网络）\程序\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D02320-6011-46CF-94EF-F6AA0599DAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225961DA-C0FD-4CDB-8B3E-29CC8868536F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="1560" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="28605" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -388,6 +388,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -490,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -521,9 +522,6 @@
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -832,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G21"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -844,515 +842,477 @@
     <col min="8" max="16384" width="13.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>7588.24</v>
-      </c>
-      <c r="B2" s="15">
-        <v>18121.330000000002</v>
+        <v>3145.13</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1399.92</v>
       </c>
       <c r="C2" s="5">
-        <v>7641.2</v>
+        <v>4601.3999999999996</v>
       </c>
       <c r="D2" s="6">
-        <v>499.9</v>
+        <v>490.30188358599111</v>
       </c>
       <c r="E2" s="7">
-        <v>32.200000000000003</v>
+        <v>30.073714780374061</v>
       </c>
       <c r="F2" s="7">
-        <f>Sheet2!F5</f>
-        <v>525.6</v>
+        <v>-2.1138240751920421</v>
       </c>
       <c r="G2" s="7">
-        <f>Sheet2!G5</f>
-        <v>-5.8999999999999773</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+        <v>188.30948032558243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>7655.66</v>
-      </c>
-      <c r="B3" s="15">
-        <v>21240.79</v>
+        <v>3111</v>
+      </c>
+      <c r="B3" s="14">
+        <v>3745.19</v>
       </c>
       <c r="C3" s="5">
-        <v>7385.16</v>
+        <v>4601</v>
       </c>
       <c r="D3" s="6">
-        <v>492.3</v>
+        <v>482.95943173327476</v>
       </c>
       <c r="E3" s="7">
-        <v>30.5</v>
+        <v>28.565593390207813</v>
       </c>
       <c r="F3" s="7">
-        <f>Sheet2!F6</f>
-        <v>519.70000000000005</v>
+        <v>9.5659496284114027</v>
       </c>
       <c r="G3" s="7">
-        <f>Sheet2!G6</f>
-        <v>26.699999999999932</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+        <v>186.19565625039039</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>7723.13</v>
-      </c>
-      <c r="B4" s="15">
-        <v>25988.36</v>
+        <v>3076.87</v>
+      </c>
+      <c r="B4" s="14">
+        <v>4450</v>
       </c>
       <c r="C4" s="5">
-        <v>7362.79</v>
+        <v>4459.5</v>
       </c>
       <c r="D4" s="6">
-        <v>484.7</v>
+        <v>475.61697988055846</v>
       </c>
       <c r="E4" s="7">
-        <v>28.8</v>
+        <v>27.05747200004156</v>
       </c>
       <c r="F4" s="7">
-        <f>Sheet2!F7</f>
-        <v>546.4</v>
+        <v>4.2634756770822548</v>
       </c>
       <c r="G4" s="7">
-        <f>Sheet2!G7</f>
-        <v>11.899999999999977</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+        <v>195.76160587880179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>7762.48</v>
-      </c>
-      <c r="B5" s="15">
-        <v>30945.45</v>
+        <v>3042.77</v>
+      </c>
+      <c r="B5" s="14">
+        <v>5287.57</v>
       </c>
       <c r="C5" s="5">
-        <v>7494.85</v>
+        <v>4460</v>
       </c>
       <c r="D5" s="6">
-        <v>477.1</v>
+        <v>468.27452802784217</v>
       </c>
       <c r="E5" s="7">
-        <v>27.1</v>
+        <v>25.549350609875308</v>
       </c>
       <c r="F5" s="7">
-        <f>Sheet2!F8</f>
-        <v>558.29999999999995</v>
+        <v>0</v>
       </c>
       <c r="G5" s="7">
-        <f>Sheet2!G8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+        <v>200.02508155588404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>7810.27</v>
-      </c>
-      <c r="B6" s="15">
-        <v>34471.67</v>
+        <v>3023.97</v>
+      </c>
+      <c r="B6" s="14">
+        <v>6346.29</v>
       </c>
       <c r="C6" s="5">
-        <v>7542.63</v>
+        <v>4556</v>
       </c>
       <c r="D6" s="6">
-        <v>469.5</v>
+        <v>460.93207617512587</v>
       </c>
       <c r="E6" s="7">
-        <v>25.4</v>
+        <v>24.041229219709059</v>
       </c>
       <c r="F6" s="7">
-        <f>Sheet2!F9</f>
-        <v>558.29999999999995</v>
+        <v>-3.2603049295334472</v>
       </c>
       <c r="G6" s="7">
-        <f>Sheet2!G9</f>
-        <v>-9.0999999999999091</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+        <v>200.02508155588404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>7869.34</v>
-      </c>
-      <c r="B7" s="15">
-        <v>41383.870000000003</v>
+        <v>3015.02</v>
+      </c>
+      <c r="B7" s="14">
+        <v>7196.89</v>
       </c>
       <c r="C7" s="5">
-        <v>7616.96</v>
+        <v>4601.2</v>
       </c>
       <c r="D7" s="8">
-        <v>463</v>
+        <v>453.58962432240952</v>
       </c>
       <c r="E7" s="9">
-        <v>24</v>
+        <v>22.533107829542807</v>
       </c>
       <c r="F7" s="7">
-        <f>Sheet2!F10</f>
-        <v>549.20000000000005</v>
+        <v>-5.4647766263505844</v>
       </c>
       <c r="G7" s="7">
-        <f>Sheet2!G10</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+        <v>196.7647766263506</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>8022.99</v>
-      </c>
-      <c r="B8" s="15">
-        <v>48839.21</v>
+        <v>2977</v>
+      </c>
+      <c r="B8" s="14">
+        <v>8920.3700000000008</v>
       </c>
       <c r="C8" s="5">
-        <v>7646.43</v>
+        <v>4660.6000000000004</v>
       </c>
       <c r="D8" s="8">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="E8" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F8" s="7">
-        <f>Sheet2!F11</f>
-        <v>552.20000000000005</v>
+        <v>1.0999999999999943</v>
       </c>
       <c r="G8" s="7">
-        <f>Sheet2!G11</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+        <v>191.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>8119.81</v>
-      </c>
-      <c r="B9" s="15">
-        <v>53701.919999999998</v>
+        <v>2956.6</v>
+      </c>
+      <c r="B9" s="14">
+        <v>10744.32</v>
       </c>
       <c r="C9" s="5">
-        <v>7651.38</v>
+        <v>4696.7</v>
       </c>
       <c r="D9" s="8">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="E9" s="9">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F9" s="7">
-        <f>Sheet2!F12</f>
-        <v>556.20000000000005</v>
+        <v>-2.9000000000000057</v>
       </c>
       <c r="G9" s="7">
-        <f>Sheet2!G12</f>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+        <v>192.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>8192.44</v>
-      </c>
-      <c r="B10" s="15">
-        <v>59349.41</v>
+        <v>2943.7300000000005</v>
+      </c>
+      <c r="B10" s="14">
+        <v>12182.94</v>
       </c>
       <c r="C10" s="5">
-        <v>7661</v>
+        <v>4706.1000000000004</v>
       </c>
       <c r="D10" s="8">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="E10" s="9">
-        <v>19.3</v>
+        <v>20</v>
       </c>
       <c r="F10" s="7">
-        <f>Sheet2!F13</f>
-        <v>552.20000000000005</v>
+        <v>-1.9000000000000057</v>
       </c>
       <c r="G10" s="7">
-        <f>Sheet2!G13</f>
-        <v>-53.300000000000068</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+        <v>189.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>8281.09</v>
-      </c>
-      <c r="B11" s="15">
-        <v>64830.51</v>
+        <v>2940.49</v>
+      </c>
+      <c r="B11" s="14">
+        <v>13558.880000000001</v>
       </c>
       <c r="C11" s="5">
-        <v>7672.27</v>
+        <v>4720.59</v>
       </c>
       <c r="D11" s="8">
-        <v>433.3</v>
+        <v>417</v>
       </c>
       <c r="E11" s="9">
-        <v>17.399999999999999</v>
+        <v>21.4</v>
       </c>
       <c r="F11" s="7">
-        <f>Sheet2!F14</f>
-        <v>498.9</v>
+        <v>3.3000000000000114</v>
       </c>
       <c r="G11" s="7">
-        <f>Sheet2!G14</f>
-        <v>-18.199999999999989</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+        <v>187.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>8315.11</v>
-      </c>
-      <c r="B12" s="15">
-        <v>71255.929999999993</v>
+        <v>2952.06</v>
+      </c>
+      <c r="B12" s="14">
+        <v>15151.490000000002</v>
       </c>
       <c r="C12" s="5">
-        <v>7737.75</v>
+        <v>4710.49</v>
       </c>
       <c r="D12" s="8">
-        <v>402</v>
+        <v>405.4</v>
       </c>
       <c r="E12" s="9">
-        <v>16.5</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="F12" s="7">
-        <f>Sheet2!F15</f>
-        <v>480.7</v>
+        <v>-6.3000000000000114</v>
       </c>
       <c r="G12" s="7">
-        <f>Sheet2!G15</f>
-        <v>-20.099999999999966</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+        <v>190.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>8381.4699999999993</v>
-      </c>
-      <c r="B13" s="15">
-        <v>77350.850000000006</v>
+        <v>2957.9</v>
+      </c>
+      <c r="B13" s="14">
+        <v>16564.3</v>
       </c>
       <c r="C13" s="5">
-        <v>7639.92</v>
+        <v>4728.88</v>
       </c>
       <c r="D13" s="8">
-        <v>410</v>
+        <v>388.7</v>
       </c>
       <c r="E13" s="9">
-        <v>41.2</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="F13" s="7">
-        <f>Sheet2!F16</f>
-        <v>460.6</v>
+        <v>3.3000000000000114</v>
       </c>
       <c r="G13" s="7">
-        <f>Sheet2!G16</f>
-        <v>-7.4000000000000341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+        <v>184.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>8423.5</v>
-      </c>
-      <c r="B14" s="15">
-        <v>85869.759999999995</v>
+        <v>2970.15</v>
+      </c>
+      <c r="B14" s="14">
+        <v>18160.2</v>
       </c>
       <c r="C14" s="5">
-        <v>7556.4</v>
+        <v>4701.5099999999993</v>
       </c>
       <c r="D14" s="8">
-        <v>427</v>
+        <v>430.5</v>
       </c>
       <c r="E14" s="9">
-        <v>36.700000000000003</v>
+        <v>14.2</v>
       </c>
       <c r="F14" s="7">
-        <f>Sheet2!F17</f>
-        <v>453.2</v>
+        <v>3.2999999999999829</v>
       </c>
       <c r="G14" s="7">
-        <f>Sheet2!G17</f>
-        <v>12.699999999999989</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+        <v>187.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>8446.19</v>
-      </c>
-      <c r="B15" s="15">
-        <v>93207.55</v>
+        <v>2987.39</v>
+      </c>
+      <c r="B15" s="14">
+        <v>20268.769999999997</v>
       </c>
       <c r="C15" s="5">
-        <v>7520.23</v>
+        <v>4663.7299999999996</v>
       </c>
       <c r="D15" s="8">
-        <v>429</v>
+        <v>443.3</v>
       </c>
       <c r="E15" s="9">
-        <v>34.200000000000003</v>
+        <v>16.2</v>
       </c>
       <c r="F15" s="7">
-        <f>Sheet2!F18</f>
-        <v>465.9</v>
+        <v>-26.321722135020877</v>
       </c>
       <c r="G15" s="7">
-        <f>Sheet2!G18</f>
-        <v>-5.6999999999999886</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+        <v>191.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <v>8469.09</v>
-      </c>
-      <c r="B16" s="15">
-        <v>98656.82</v>
+        <v>2992.03</v>
+      </c>
+      <c r="B16" s="14">
+        <v>21365.980000000003</v>
       </c>
       <c r="C16" s="5">
-        <v>7442.63</v>
+        <v>4713.7700000000004</v>
       </c>
       <c r="D16" s="8">
-        <v>474.7</v>
+        <v>414.46208484411858</v>
       </c>
       <c r="E16" s="9">
-        <v>32.4</v>
+        <v>30.33985384922693</v>
       </c>
       <c r="F16" s="7">
-        <f>Sheet2!F19</f>
-        <v>460.2</v>
+        <v>11.894738863792497</v>
       </c>
       <c r="G16" s="7">
-        <f>Sheet2!G19</f>
-        <v>33.199999999999989</v>
+        <v>164.87827786497911</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
-        <v>8477.26</v>
-      </c>
-      <c r="B17" s="15">
-        <v>102807.67999999999</v>
+        <v>2997.58</v>
+      </c>
+      <c r="B17" s="14">
+        <v>22963.34</v>
       </c>
       <c r="C17" s="5">
-        <v>7478.39</v>
+        <v>4717.45</v>
       </c>
       <c r="D17" s="8">
-        <v>423.1</v>
+        <v>458.61340716900486</v>
       </c>
       <c r="E17" s="9">
-        <v>31.1</v>
+        <v>28.743019436109719</v>
       </c>
       <c r="F17" s="7">
-        <f>Sheet2!F20</f>
-        <v>493.4</v>
+        <v>-9.8730167287716029</v>
       </c>
       <c r="G17" s="7">
-        <f>Sheet2!G20</f>
-        <v>-40.699999999999989</v>
+        <v>176.77301672877161</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
-        <v>8505.4</v>
-      </c>
-      <c r="B18" s="15">
-        <v>117392.36</v>
+        <v>2994.2900000000004</v>
+      </c>
+      <c r="B18" s="14">
+        <v>23837.96</v>
       </c>
       <c r="C18" s="5">
-        <v>7514.45</v>
+        <v>4758.7700000000004</v>
       </c>
       <c r="D18" s="8">
-        <v>395.1</v>
+        <v>391.8</v>
       </c>
       <c r="E18" s="9">
-        <v>19.399999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="F18" s="7">
-        <f>Sheet2!F21</f>
-        <v>452.7</v>
+        <v>-2.4000000000000057</v>
       </c>
       <c r="G18" s="7">
-        <f>Sheet2!G21</f>
-        <v>114.90000000000003</v>
+        <v>166.9</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
-        <v>8515</v>
-      </c>
-      <c r="B19" s="16">
-        <v>122089.28</v>
+        <v>2990.47</v>
+      </c>
+      <c r="B19" s="15">
+        <v>26731.89</v>
       </c>
       <c r="C19" s="5">
-        <v>7534.24</v>
+        <v>4768</v>
       </c>
       <c r="D19" s="8">
-        <v>476.1</v>
+        <v>381.71088513266028</v>
       </c>
       <c r="E19" s="9">
-        <v>17.8</v>
+        <v>17.21032645248545</v>
       </c>
       <c r="F19" s="7">
-        <f>Sheet2!F22</f>
-        <v>567.6</v>
+        <v>29.800000000000011</v>
       </c>
       <c r="G19" s="7">
-        <f>Sheet2!G22</f>
-        <v>44.199999999999932</v>
+        <v>164.5</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
-        <v>8526</v>
-      </c>
-      <c r="B20" s="16">
-        <v>128222.16</v>
+        <v>2983.71</v>
+      </c>
+      <c r="B20" s="15">
+        <v>28397.05</v>
       </c>
       <c r="C20" s="5">
-        <v>7589.96</v>
+        <v>4783.75</v>
       </c>
       <c r="D20" s="8">
-        <v>400.2</v>
+        <v>459.96596408924211</v>
       </c>
       <c r="E20" s="9">
-        <v>17.7</v>
-      </c>
-      <c r="F20" s="19">
-        <v>611.79999999999995</v>
-      </c>
-      <c r="G20" s="7">
-        <f>Sheet2!G23</f>
-        <v>-40.399999999999977</v>
+        <v>15.790918085270157</v>
+      </c>
+      <c r="F20" s="7">
+        <v>-29.300000000000011</v>
+      </c>
+      <c r="G20" s="18">
+        <v>194.3</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="G22" s="17"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
@@ -1778,28 +1738,28 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>51</v>
       </c>
       <c r="I3" s="1"/>
@@ -1811,7 +1771,7 @@
       <c r="A4" s="4">
         <v>7522.95</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>14823.13</v>
       </c>
       <c r="C4" s="5">
@@ -1825,7 +1785,7 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>525.6</v>
       </c>
       <c r="I4" s="1">
@@ -1839,7 +1799,7 @@
       <c r="A5" s="4">
         <v>7588.24</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>18121.330000000002</v>
       </c>
       <c r="C5" s="5">
@@ -1851,14 +1811,14 @@
       <c r="E5" s="7">
         <v>32.200000000000003</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>525.6</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" ref="G5:G23" si="0">H5-H4</f>
         <v>-5.8999999999999773</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <v>519.70000000000005</v>
       </c>
       <c r="I5" s="1">
@@ -1872,7 +1832,7 @@
       <c r="A6" s="4">
         <v>7655.66</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>21240.79</v>
       </c>
       <c r="C6" s="5">
@@ -1884,14 +1844,14 @@
       <c r="E6" s="7">
         <v>30.5</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <v>519.70000000000005</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="0"/>
         <v>26.699999999999932</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="12">
         <v>546.4</v>
       </c>
       <c r="I6" s="1">
@@ -1905,7 +1865,7 @@
       <c r="A7" s="4">
         <v>7723.13</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>25988.36</v>
       </c>
       <c r="C7" s="5">
@@ -1917,14 +1877,14 @@
       <c r="E7" s="7">
         <v>28.8</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>546.4</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>11.899999999999977</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <v>558.29999999999995</v>
       </c>
       <c r="I7" s="1">
@@ -1938,7 +1898,7 @@
       <c r="A8" s="4">
         <v>7762.48</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>30945.45</v>
       </c>
       <c r="C8" s="5">
@@ -1950,14 +1910,14 @@
       <c r="E8" s="7">
         <v>27.1</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>558.29999999999995</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <v>558.29999999999995</v>
       </c>
       <c r="I8" s="1">
@@ -1971,7 +1931,7 @@
       <c r="A9" s="4">
         <v>7810.27</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>34471.67</v>
       </c>
       <c r="C9" s="5">
@@ -1983,14 +1943,14 @@
       <c r="E9" s="7">
         <v>25.4</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>558.29999999999995</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="0"/>
         <v>-9.0999999999999091</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="12">
         <v>549.20000000000005</v>
       </c>
       <c r="I9" s="1">
@@ -2004,7 +1964,7 @@
       <c r="A10" s="4">
         <v>7869.34</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>41383.870000000003</v>
       </c>
       <c r="C10" s="5">
@@ -2016,14 +1976,14 @@
       <c r="E10" s="9">
         <v>24</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <v>549.20000000000005</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>552.20000000000005</v>
       </c>
       <c r="I10" s="1">
@@ -2037,7 +1997,7 @@
       <c r="A11" s="4">
         <v>8022.99</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>48839.21</v>
       </c>
       <c r="C11" s="5">
@@ -2049,14 +2009,14 @@
       <c r="E11" s="9">
         <v>22</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <v>552.20000000000005</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>556.20000000000005</v>
       </c>
       <c r="I11" s="1">
@@ -2070,7 +2030,7 @@
       <c r="A12" s="4">
         <v>8119.81</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>53701.919999999998</v>
       </c>
       <c r="C12" s="5">
@@ -2082,14 +2042,14 @@
       <c r="E12" s="9">
         <v>19</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <v>556.20000000000005</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <v>552.20000000000005</v>
       </c>
       <c r="I12" s="1">
@@ -2103,7 +2063,7 @@
       <c r="A13" s="4">
         <v>8192.44</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>59349.41</v>
       </c>
       <c r="C13" s="5">
@@ -2115,14 +2075,14 @@
       <c r="E13" s="9">
         <v>19.3</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <v>552.20000000000005</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="0"/>
         <v>-53.300000000000068</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <v>498.9</v>
       </c>
       <c r="I13" s="1">
@@ -2136,7 +2096,7 @@
       <c r="A14" s="4">
         <v>8281.09</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>64830.51</v>
       </c>
       <c r="C14" s="5">
@@ -2148,14 +2108,14 @@
       <c r="E14" s="9">
         <v>17.399999999999999</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="18">
         <v>498.9</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="0"/>
         <v>-18.199999999999989</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <v>480.7</v>
       </c>
       <c r="I14" s="1">
@@ -2169,7 +2129,7 @@
       <c r="A15" s="4">
         <v>8315.11</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>71255.929999999993</v>
       </c>
       <c r="C15" s="5">
@@ -2181,14 +2141,14 @@
       <c r="E15" s="9">
         <v>16.5</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="18">
         <v>480.7</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="0"/>
         <v>-20.099999999999966</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="13">
         <v>460.6</v>
       </c>
       <c r="I15" s="1">
@@ -2202,7 +2162,7 @@
       <c r="A16" s="4">
         <v>8381.4699999999993</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>77350.850000000006</v>
       </c>
       <c r="C16" s="5">
@@ -2214,14 +2174,14 @@
       <c r="E16" s="9">
         <v>41.2</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="18">
         <v>460.6</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="0"/>
         <v>-7.4000000000000341</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <v>453.2</v>
       </c>
       <c r="I16" s="1">
@@ -2235,7 +2195,7 @@
       <c r="A17" s="4">
         <v>8423.5</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <v>85869.759999999995</v>
       </c>
       <c r="C17" s="5">
@@ -2247,14 +2207,14 @@
       <c r="E17" s="9">
         <v>36.700000000000003</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="18">
         <v>453.2</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="0"/>
         <v>12.699999999999989</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <v>465.9</v>
       </c>
       <c r="I17" s="1">
@@ -2268,7 +2228,7 @@
       <c r="A18" s="4">
         <v>8446.19</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <v>93207.55</v>
       </c>
       <c r="C18" s="5">
@@ -2280,14 +2240,14 @@
       <c r="E18" s="9">
         <v>34.200000000000003</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="18">
         <v>465.9</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="0"/>
         <v>-5.6999999999999886</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <v>460.2</v>
       </c>
       <c r="I18" s="1">
@@ -2301,7 +2261,7 @@
       <c r="A19" s="4">
         <v>8469.09</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <v>98656.82</v>
       </c>
       <c r="C19" s="5">
@@ -2313,14 +2273,14 @@
       <c r="E19" s="9">
         <v>32.4</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="18">
         <v>460.2</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="0"/>
         <v>33.199999999999989</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="13">
         <v>493.4</v>
       </c>
       <c r="I19" s="1">
@@ -2334,7 +2294,7 @@
       <c r="A20" s="10">
         <v>8477.26</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>102807.67999999999</v>
       </c>
       <c r="C20" s="5">
@@ -2346,14 +2306,14 @@
       <c r="E20" s="9">
         <v>31.1</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="18">
         <v>493.4</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="0"/>
         <v>-40.699999999999989</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="13">
         <v>452.7</v>
       </c>
       <c r="I20" s="1">
@@ -2367,7 +2327,7 @@
       <c r="A21" s="10">
         <v>8505.4</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="14">
         <v>117392.36</v>
       </c>
       <c r="C21" s="5">
@@ -2379,14 +2339,14 @@
       <c r="E21" s="9">
         <v>19.399999999999999</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="18">
         <v>452.7</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="0"/>
         <v>114.90000000000003</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="13">
         <v>567.6</v>
       </c>
       <c r="I21" s="1">
@@ -2400,7 +2360,7 @@
       <c r="A22" s="10">
         <v>8515</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="15">
         <v>122089.28</v>
       </c>
       <c r="C22" s="5">
@@ -2412,14 +2372,14 @@
       <c r="E22" s="9">
         <v>17.8</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="18">
         <v>567.6</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="0"/>
         <v>44.199999999999932</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="13">
         <v>611.79999999999995</v>
       </c>
       <c r="I22" s="1">
@@ -2433,7 +2393,7 @@
       <c r="A23" s="10">
         <v>8526</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="15">
         <v>128222.16</v>
       </c>
       <c r="C23" s="5">
@@ -2445,14 +2405,14 @@
       <c r="E23" s="9">
         <v>17.7</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="18">
         <v>611.79999999999995</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="0"/>
         <v>-40.399999999999977</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="13">
         <v>571.4</v>
       </c>
       <c r="I23" s="1">
